--- a/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
+++ b/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71675836-3F86-4C76-809F-6E39B8C1F888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E3DB5F-4AB6-477A-9A6F-40B18778C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
   <si>
     <t>Part</t>
   </si>
@@ -41,15 +41,9 @@
     <t>Misumi</t>
   </si>
   <si>
-    <t>SBCB5-10</t>
-  </si>
-  <si>
     <t>M3 nut</t>
   </si>
   <si>
-    <t>HFS5-2020-1140</t>
-  </si>
-  <si>
     <t>HHPNL5</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>Corner brackets for frame.</t>
   </si>
   <si>
-    <t xml:space="preserve">M5 10mm button head screw </t>
-  </si>
-  <si>
     <t xml:space="preserve">M5 20mm cap head screw </t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>M5 nut</t>
   </si>
   <si>
-    <t>door strip attachment</t>
-  </si>
-  <si>
     <t>5mm white acrylic</t>
   </si>
   <si>
@@ -206,12 +194,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>IR led - ILH-OW04-FRED-SC211-WIR200</t>
-  </si>
-  <si>
-    <t>879-3797</t>
-  </si>
-  <si>
     <t>Heatsink tape</t>
   </si>
   <si>
@@ -230,9 +212,6 @@
     <t>Uplighter rail</t>
   </si>
   <si>
-    <t>HFS5-2020-200-LMH</t>
-  </si>
-  <si>
     <t>Uplighter 45 degree bracket</t>
   </si>
   <si>
@@ -296,9 +275,6 @@
     <t>Cut Tec</t>
   </si>
   <si>
-    <t>SG Manufacturing Ltd</t>
-  </si>
-  <si>
     <t>Fluid delivery</t>
   </si>
   <si>
@@ -332,9 +308,6 @@
     <t>M3 x 16mm cap head screw</t>
   </si>
   <si>
-    <t>LED driver, 12V input 700mA CC output</t>
-  </si>
-  <si>
     <t>CM3-U3-13Y3M-CS</t>
   </si>
   <si>
@@ -392,18 +365,6 @@
     <t>PSU 12V 36W</t>
   </si>
   <si>
-    <t>Power splitter 2.1mm</t>
-  </si>
-  <si>
-    <t>OEPS</t>
-  </si>
-  <si>
-    <t>HFS5-2020-700</t>
-  </si>
-  <si>
-    <t>hinge (8), camera attachment (1), base strip (6)</t>
-  </si>
-  <si>
     <t>Countersunk M3 8mm screw</t>
   </si>
   <si>
@@ -413,15 +374,6 @@
     <t>M3 cable tie mount</t>
   </si>
   <si>
-    <t>2.1mm power socket to screw terminal adapter</t>
-  </si>
-  <si>
-    <t>12V power distribution</t>
-  </si>
-  <si>
-    <t>2.1mm power cable 1.5m</t>
-  </si>
-  <si>
     <t>control PCB attachment (4), cable tie mount (10)</t>
   </si>
   <si>
@@ -494,15 +446,9 @@
     <t>enclosure_door_center_strip</t>
   </si>
   <si>
-    <t>enclosure_base_strip</t>
-  </si>
-  <si>
     <t>Frosted acrylic rod</t>
   </si>
   <si>
-    <t>Short variant part number</t>
-  </si>
-  <si>
     <t>Camera lens</t>
   </si>
   <si>
@@ -545,9 +491,6 @@
     <t>MFLX30600-01</t>
   </si>
   <si>
-    <t>enclosure_back</t>
-  </si>
-  <si>
     <t>https://www.amazon.co.uk/SIOTI-Rotation-Adjusting-Compatibale-Ultra-Mini/dp/B09Z2WRYN9/</t>
   </si>
   <si>
@@ -557,54 +500,12 @@
     <t>SSC-1/4-20-3/8-A2</t>
   </si>
   <si>
-    <t>enclosure3x3_top_bottom_3mm_white_ACP_660x660mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_back_3mm_black_ACP_660x1180mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_side_3mm_black_ACP_660x1180mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_door_3mm_black_ACP_308x1180mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_door_side_strip_3mm_black_ACP_20x1180mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_door_center_strip_3mm_black_ACP_40x1180mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3_base_strip_3mm_black_ACP_660x58mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3sh_back_3mm_black_ACP_660x740mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3sh_side_3mm_black_ACP_660x740mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3sh_door_3mm_black_ACP_308x740mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3sh_door_side_strip_3mm_black_ACP_20x740mm</t>
-  </si>
-  <si>
-    <t>enclosure3x3sh_door_center_strip_3mm_black_ACP_40x740mm</t>
-  </si>
-  <si>
     <t>A4Z2812CS-MPIR</t>
   </si>
   <si>
     <t>M3 3mm spacer</t>
   </si>
   <si>
-    <t>BNC to screw terminal adapter</t>
-  </si>
-  <si>
-    <t>camera sync pulse</t>
-  </si>
-  <si>
     <t>Tower assembly</t>
   </si>
   <si>
@@ -620,9 +521,6 @@
     <t>Doors</t>
   </si>
   <si>
-    <t>cable tie mount, control PCB attachment</t>
-  </si>
-  <si>
     <t>Camera assembly</t>
   </si>
   <si>
@@ -633,6 +531,84 @@
   </si>
   <si>
     <t>cable management</t>
+  </si>
+  <si>
+    <t>Trent Plastics</t>
+  </si>
+  <si>
+    <t>enclosure_top_bottom_3mm_white_ACP_658x658mm.dxf</t>
+  </si>
+  <si>
+    <t>enclosure_side_3mm_black_ACP_658x998mm.dxf</t>
+  </si>
+  <si>
+    <t>enclosure_door_3mm_black_ACP_307x939mm.dxf</t>
+  </si>
+  <si>
+    <t>enclosure_door_side_strip_3mm_black_ACP_20x939mm.dxf</t>
+  </si>
+  <si>
+    <t>enclosure_door_center_strip_3mm_black_ACP_40x939mm.dxf</t>
+  </si>
+  <si>
+    <t>HFS5-2020-900</t>
+  </si>
+  <si>
+    <t>HFS5-2020-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5 10mm Nylon button head screw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFM-M5-10-N </t>
+  </si>
+  <si>
+    <t>door center strip attachment</t>
+  </si>
+  <si>
+    <t>cable tie mount</t>
+  </si>
+  <si>
+    <t>hinge (8), camera attachment (1)</t>
+  </si>
+  <si>
+    <t>Maze_IR_module_PCB</t>
+  </si>
+  <si>
+    <t>Maze_IR_module</t>
+  </si>
+  <si>
+    <t>Molex Micro-Fit 3.0 cable 1m</t>
+  </si>
+  <si>
+    <t>IR lighting</t>
+  </si>
+  <si>
+    <t>Molex Micro-Fit 3.0 cable 2m</t>
+  </si>
+  <si>
+    <t>tower PCB,  IR LED attachment,</t>
+  </si>
+  <si>
+    <t>control PCB, IR LED attachment</t>
+  </si>
+  <si>
+    <t>122-2145</t>
+  </si>
+  <si>
+    <t>BNC cable 3m</t>
+  </si>
+  <si>
+    <t>camera sync pulse cable (cut in half)</t>
+  </si>
+  <si>
+    <t>Camera-computer cable</t>
+  </si>
+  <si>
+    <t>Camera sync pulse cable</t>
+  </si>
+  <si>
+    <t>Syringe 50ml</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,642 +1002,622 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C26">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
         <v>4</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1670,151 +1626,145 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C40">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1823,475 +1773,467 @@
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
         <v>35</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" t="s">
-        <v>179</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2987669</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2987712</v>
+      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="5">
-        <v>2987669</v>
-      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="5">
-        <v>2987712</v>
-      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="J56" s="3"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>0.15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>0.02</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>55</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="C59">
-        <v>0.15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60">
-        <v>0.02</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
       <c r="C61">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63">
+        <v>197</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>96</v>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>177</v>
+        <v>58</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E73" s="5">
-        <v>3596447</v>
+        <v>1734905</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1526172</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E75" s="5">
-        <v>1734905</v>
+        <v>1734870</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E76" s="5">
-        <v>1526172</v>
+        <v>4230976</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E77" s="5">
-        <v>1734870</v>
+        <v>4230977</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E78" s="5">
         <v>2468268</v>
@@ -2299,16 +2241,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E79" s="5">
         <v>2646329</v>
@@ -2316,159 +2258,90 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E80" s="5">
-        <v>3498349</v>
+        <v>1773450</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E81" s="5">
-        <v>2381876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1209175</v>
+        <v>1416041</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" t="s">
-        <v>133</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="5">
-        <v>3214623</v>
+      <c r="A83" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>131</v>
-      </c>
-      <c r="B84" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="C84">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1773450</v>
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="C85">
-        <v>50</v>
-      </c>
-      <c r="D85" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1416041</v>
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E91"/>
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E71" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E65" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
+++ b/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E3DB5F-4AB6-477A-9A6F-40B18778C876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293911D5-7E7F-4B86-AF57-6C645913BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <t>Part</t>
   </si>
@@ -194,12 +199,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>Heatsink tape</t>
-  </si>
-  <si>
-    <t>477-4878</t>
-  </si>
-  <si>
     <t>Point Grey GPIO cable</t>
   </si>
   <si>
@@ -278,9 +277,6 @@
     <t>Fluid delivery</t>
   </si>
   <si>
-    <t>LHDA1231415H</t>
-  </si>
-  <si>
     <t>Electronics and cables</t>
   </si>
   <si>
@@ -452,9 +448,6 @@
     <t>Camera lens</t>
   </si>
   <si>
-    <t>enclosure IR lighting</t>
-  </si>
-  <si>
     <t>floorA</t>
   </si>
   <si>
@@ -609,6 +602,21 @@
   </si>
   <si>
     <t>Syringe 50ml</t>
+  </si>
+  <si>
+    <t>LHDB1233518H</t>
+  </si>
+  <si>
+    <t>6x25cm, 3x44cm, 1x36mm, 3x18cm, 1x120cm</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>18x8cm lengths</t>
+  </si>
+  <si>
+    <t>1.5m</t>
   </si>
 </sst>
 </file>
@@ -703,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,9 +751,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,9 +786,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +838,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1032,7 +1074,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1041,15 +1083,15 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1058,15 +1100,15 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1075,15 +1117,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1092,15 +1134,15 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1109,15 +1151,15 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1126,15 +1168,15 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1143,15 +1185,15 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -1160,15 +1202,15 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
@@ -1177,32 +1219,32 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
@@ -1211,15 +1253,15 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -1228,15 +1270,15 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
@@ -1245,15 +1287,15 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
         <v>172</v>
-      </c>
-      <c r="E16" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -1262,18 +1304,18 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1282,12 +1324,12 @@
         <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1"/>
       <c r="F20" s="2"/>
@@ -1298,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1315,10 +1357,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1327,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1338,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1355,10 +1397,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1378,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -1398,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1407,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1415,10 +1457,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1427,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1435,10 +1477,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1447,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1455,7 +1497,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -1464,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1475,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>38</v>
@@ -1484,15 +1526,15 @@
         <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>19</v>
@@ -1501,24 +1543,24 @@
         <v>7</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -1552,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1569,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,7 +1619,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1594,7 +1636,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1628,7 +1670,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -1640,15 +1682,15 @@
         <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1657,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1665,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -1674,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1699,7 +1741,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1716,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1756,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1815,10 +1857,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50">
         <v>14</v>
@@ -1827,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1835,10 +1877,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1847,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1855,10 +1897,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>18</v>
@@ -1875,10 +1917,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1900,7 +1942,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1917,35 +1959,41 @@
         <v>50</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="C57">
-        <v>0.15</v>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
+        <v>196</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="C58">
-        <v>0.02</v>
+      <c r="B58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -1956,10 +2004,10 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1970,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
         <v>152</v>
-      </c>
-      <c r="E60" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,72 +2032,72 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,58 +2105,58 @@
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C71">
         <v>0.5</v>
@@ -2117,32 +2165,32 @@
         <v>58</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1734905</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -2151,15 +2199,15 @@
         <v>57</v>
       </c>
       <c r="E73" s="5">
-        <v>1734905</v>
+        <v>1526172</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2168,32 +2216,32 @@
         <v>57</v>
       </c>
       <c r="E74" s="5">
-        <v>1526172</v>
+        <v>1734870</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>57</v>
       </c>
       <c r="E75" s="5">
-        <v>1734870</v>
+        <v>4230976</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2202,15 +2250,15 @@
         <v>57</v>
       </c>
       <c r="E76" s="5">
-        <v>4230976</v>
+        <v>4230977</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2219,15 +2267,15 @@
         <v>57</v>
       </c>
       <c r="E77" s="5">
-        <v>4230977</v>
+        <v>2468268</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2236,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="E78" s="5">
-        <v>2468268</v>
+        <v>2646329</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,99 +2292,82 @@
         <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="5">
-        <v>2646329</v>
+        <v>1773450</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="5">
-        <v>1773450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="5">
         <v>1416041</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>107</v>
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
+++ b/GridMaze/3_x_3_maze/3_x_3_maze_BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293911D5-7E7F-4B86-AF57-6C645913BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D2CA57-4E33-4493-B4D9-54656F0871CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="1110" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
